--- a/опт и Краснодар/2023/09,23/18,09,23 Кр_Сч_РнД/дв 18,09,23 кррсч.xlsx
+++ b/опт и Краснодар/2023/09,23/18,09,23 Кр_Сч_РнД/дв 18,09,23 кррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\опт и Краснодар\2023\09,23\18,09,23 Кр_Сч_РнД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\09,23\18,09,23 Кр_Сч_РнД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C523C3-E32A-4412-B32F-AD79A9783863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF1F1B5-A56E-4F18-A2FD-D5B45DD071A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
   <si>
     <t>Период: 11.09.2023 - 18.09.2023</t>
   </si>
@@ -468,67 +468,13 @@
     <t>необходимо увеличить продажи</t>
   </si>
   <si>
-    <t>ДОЗАКАЗ</t>
-  </si>
-  <si>
-    <t>вес ДОЗАКАЗ</t>
-  </si>
-  <si>
-    <t>В\К Сочинка зернистая вес</t>
-  </si>
-  <si>
-    <t>В\К Сочинка рубленная Вес</t>
-  </si>
-  <si>
-    <t>Кракушка с пряным сальцем 0,3 кг</t>
-  </si>
-  <si>
-    <t>Паштет Любительский 0,1 кг</t>
-  </si>
-  <si>
-    <t>Паштет с морковью 0,1 кг</t>
-  </si>
-  <si>
-    <t>Паштет со сливочным маслом 0,1 кг</t>
-  </si>
-  <si>
-    <t>С\К Филейбурская зернистая нарезка 0,03 кг</t>
-  </si>
-  <si>
-    <t>С\К Филейбурская с мраморным балыком нарезка 0,03 кг</t>
-  </si>
-  <si>
-    <t>Сардельки Баварские Бавария 0,38</t>
-  </si>
-  <si>
-    <t>Сардельки Говяжьи</t>
-  </si>
-  <si>
-    <t>сардельки нежные</t>
-  </si>
-  <si>
-    <t>Сардельки Сочинки с сочным окороком 0,4 кг</t>
-  </si>
-  <si>
-    <t>Сардельки Сочинки с сыром 0,42 кг</t>
-  </si>
-  <si>
-    <t>Сервелат Мясорубский с мелкорубленным окороком 0,35 кг</t>
-  </si>
-  <si>
-    <t>Сервелат Мясорубский с мелкорубленным окороком Вес</t>
-  </si>
-  <si>
-    <t>Сервелат Филедворский 0,35 кг</t>
-  </si>
-  <si>
-    <t>Сосиски Баварские вес</t>
-  </si>
-  <si>
     <t>не в матрице</t>
   </si>
   <si>
     <t>от филиала</t>
+  </si>
+  <si>
+    <t>ЗАКАЗ</t>
   </si>
 </sst>
 </file>
@@ -552,14 +498,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -574,22 +512,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color indexed="56"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -600,6 +522,30 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color indexed="56"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -654,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -705,121 +651,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -851,18 +687,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -872,68 +701,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5784,26 +5575,26 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y143"/>
+  <dimension ref="A1:Y125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomLeft" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="83.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="6" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="1.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="1.6640625" style="2" customWidth="1"/>
     <col min="10" max="11" width="2.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="18" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="28" customWidth="1"/>
     <col min="14" max="14" width="2" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12" style="33" customWidth="1"/>
     <col min="16" max="17" width="7.5" style="2" customWidth="1"/>
     <col min="18" max="19" width="8.1640625" style="2" customWidth="1"/>
     <col min="20" max="20" width="2.6640625" style="2" customWidth="1"/>
@@ -5811,25 +5602,25 @@
     <col min="22" max="22" width="10.5" style="2"/>
     <col min="23" max="23" width="2.33203125" style="2" customWidth="1"/>
     <col min="24" max="24" width="10.5" style="2"/>
-    <col min="25" max="25" width="10.5" style="17"/>
+    <col min="25" max="25" width="10.5" style="15"/>
     <col min="26" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="O2" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O2" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5858,14 +5649,14 @@
       <c r="L3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="29" t="s">
         <v>135</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="60" t="s">
-        <v>144</v>
+      <c r="O3" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>137</v>
@@ -5873,13 +5664,13 @@
       <c r="Q3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="U3" s="12" t="s">
@@ -5891,11 +5682,8 @@
       <c r="W3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="Y3" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -5920,9 +5708,9 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="19"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -5932,79 +5720,79 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
     </row>
-    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="15">
-        <f>SUM(E6:E266)</f>
+      <c r="E5" s="14">
+        <f>SUM(E6:E249)</f>
         <v>3615.9659999999985</v>
       </c>
-      <c r="F5" s="15">
-        <f>SUM(F6:F266)</f>
+      <c r="F5" s="14">
+        <f>SUM(F6:F249)</f>
         <v>13938.898000000001</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="15">
-        <f t="shared" ref="H5:N5" si="0">SUM(H6:H266)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" si="0"/>
+      <c r="H5" s="14">
+        <f>SUM(H6:H249)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f>SUM(I6:I249)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f>SUM(J6:J249)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <f>SUM(K6:K249)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <f>SUM(L6:L249)</f>
         <v>723.19320000000027</v>
       </c>
-      <c r="M5" s="16">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="N5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="15">
-        <f>SUM(O6:O266)</f>
-        <v>3139.0714285714284</v>
+      <c r="M5" s="31">
+        <f>SUM(M6:M249)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <f>SUM(N6:N249)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>SUM(O6:O249)</f>
+        <v>0</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="15">
-        <f>SUM(R6:R266)</f>
+      <c r="R5" s="14">
+        <f>SUM(R6:R249)</f>
         <v>1086.0058000000001</v>
       </c>
-      <c r="S5" s="15">
-        <f>SUM(S6:S266)</f>
+      <c r="S5" s="14">
+        <f>SUM(S6:S249)</f>
         <v>919.31279999999992</v>
       </c>
-      <c r="T5" s="15">
-        <f>SUM(T6:T266)</f>
+      <c r="T5" s="14">
+        <f>SUM(T6:T249)</f>
         <v>0</v>
       </c>
       <c r="U5" s="12"/>
-      <c r="V5" s="15">
-        <f>SUM(V6:V266)</f>
-        <v>1729.35</v>
-      </c>
-      <c r="W5" s="15">
-        <f>SUM(W6:W266)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="14">
+        <f>SUM(V6:V249)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <f>SUM(W6:W249)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -6021,7 +5809,7 @@
       <c r="F6" s="9">
         <v>123.02500000000001</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
@@ -6029,12 +5817,9 @@
         <f>E6/5</f>
         <v>4.5780000000000003</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="61">
-        <f>Y6/G6</f>
-        <v>29</v>
-      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="27"/>
       <c r="P6" s="2">
         <f>(F6+M6)/L6</f>
         <v>26.87308868501529</v>
@@ -6051,7 +5836,7 @@
         <f>VLOOKUP(A6,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="U6" s="25" t="str">
+      <c r="U6" s="20" t="str">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
@@ -6059,11 +5844,8 @@
         <f>M6*G6</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -6080,26 +5862,23 @@
       <c r="F7" s="9">
         <v>107.875</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" ref="L7:L70" si="1">E7/5</f>
+        <f t="shared" ref="L7:L70" si="0">E7/5</f>
         <v>7.706999999999999</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="61">
-        <f t="shared" ref="O7:O67" si="2">Y7/G7</f>
-        <v>15</v>
-      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="2">
-        <f t="shared" ref="P7:P70" si="3">(F7+M7)/L7</f>
+        <f t="shared" ref="P7:P70" si="1">(F7+M7)/L7</f>
         <v>13.997015700012977</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" ref="Q7:Q70" si="4">F7/L7</f>
+        <f t="shared" ref="Q7:Q70" si="2">F7/L7</f>
         <v>13.997015700012977</v>
       </c>
       <c r="R7" s="2">
@@ -6110,19 +5889,16 @@
         <f>VLOOKUP(A7,[1]TDSheet!$A:$L,12,0)</f>
         <v>4.2750000000000004</v>
       </c>
-      <c r="U7" s="25" t="str">
+      <c r="U7" s="20" t="str">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" ref="V7:V70" si="5">M7*G7</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V7:V70" si="3">M7*G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -6137,26 +5913,23 @@
       <c r="F8" s="9">
         <v>30.85</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P8" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="2">
@@ -6167,19 +5940,16 @@
         <f>VLOOKUP(A8,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="25" t="str">
+      <c r="U8" s="20" t="str">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -6198,26 +5968,23 @@
       <c r="F9" s="9">
         <v>237.30199999999999</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <f>VLOOKUP(A9,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7633999999999999</v>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="2">
         <f t="shared" si="1"/>
-        <v>7.7633999999999999</v>
-      </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="61">
+        <v>30.566761985727901</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="3"/>
-        <v>30.566761985727901</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="4"/>
         <v>30.566761985727901</v>
       </c>
       <c r="R9" s="2">
@@ -6228,18 +5995,15 @@
         <f>VLOOKUP(A9,[1]TDSheet!$A:$L,12,0)</f>
         <v>25.4026</v>
       </c>
-      <c r="U9" s="29" t="s">
+      <c r="U9" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -6256,23 +6020,23 @@
       <c r="F10" s="9">
         <v>35.033000000000001</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="2">
         <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="2">
-        <f t="shared" si="3"/>
         <v>134.74230769230769</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>134.74230769230769</v>
       </c>
       <c r="R10" s="2">
@@ -6283,16 +6047,16 @@
         <f>VLOOKUP(A10,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="25" t="str">
+      <c r="U10" s="20" t="str">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -6307,26 +6071,23 @@
       <c r="F11" s="9">
         <v>95.453999999999994</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <f>VLOOKUP(A11,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P11" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R11" s="2">
@@ -6338,14 +6099,11 @@
         <v>2.9820000000000002</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -6364,26 +6122,23 @@
       <c r="F12" s="9">
         <v>60.073</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <f>VLOOKUP(A12,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5842000000000001</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="2">
         <f t="shared" si="1"/>
-        <v>1.5842000000000001</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="61">
+        <v>37.920085847746499</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="3"/>
-        <v>37.920085847746499</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="4"/>
         <v>37.920085847746499</v>
       </c>
       <c r="R12" s="2">
@@ -6394,18 +6149,15 @@
         <f>VLOOKUP(A12,[1]TDSheet!$A:$L,12,0)</f>
         <v>7.5680000000000005</v>
       </c>
-      <c r="U12" s="29" t="s">
+      <c r="U12" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -6424,26 +6176,23 @@
       <c r="F13" s="9">
         <v>285.89400000000001</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="2">
         <f t="shared" si="1"/>
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="61">
+        <v>504.40014114326044</v>
+      </c>
+      <c r="Q13" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="3"/>
-        <v>504.40014114326044</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="4"/>
         <v>504.40014114326044</v>
       </c>
       <c r="R13" s="2">
@@ -6454,19 +6203,16 @@
         <f>VLOOKUP(A13,[1]TDSheet!$A:$L,12,0)</f>
         <v>1.7021999999999999</v>
       </c>
-      <c r="U13" s="25" t="str">
+      <c r="U13" s="20" t="str">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -6483,26 +6229,23 @@
       <c r="F14" s="9">
         <v>50</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="61">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="R14" s="2">
@@ -6513,19 +6256,16 @@
         <f>VLOOKUP(A14,[1]TDSheet!$A:$L,12,0)</f>
         <v>1.4</v>
       </c>
-      <c r="U14" s="25" t="str">
+      <c r="U14" s="20" t="str">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -6540,26 +6280,23 @@
       <c r="F15" s="9">
         <v>88</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="P15" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="2">
@@ -6570,19 +6307,16 @@
         <f>VLOOKUP(A15,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.2</v>
       </c>
-      <c r="U15" s="25" t="str">
+      <c r="U15" s="20" t="str">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -6601,26 +6335,23 @@
       <c r="F16" s="9">
         <v>159</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="15">
         <f>VLOOKUP(A16,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="2">
         <f t="shared" si="1"/>
-        <v>12.4</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="61">
+        <v>12.82258064516129</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="3"/>
-        <v>12.82258064516129</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="4"/>
         <v>12.82258064516129</v>
       </c>
       <c r="R16" s="2">
@@ -6632,14 +6363,11 @@
         <v>2</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -6656,28 +6384,23 @@
       <c r="F17" s="9">
         <v>26</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="15">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="2">
         <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="M17" s="20">
-        <v>5</v>
-      </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="61">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="3"/>
-        <v>11.923076923076923</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R17" s="2">
@@ -6689,14 +6412,11 @@
         <v>3</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -6715,26 +6435,23 @@
       <c r="F18" s="9">
         <v>73</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="61">
+        <v>121.66666666666667</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="3"/>
-        <v>121.66666666666667</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="4"/>
         <v>121.66666666666667</v>
       </c>
       <c r="R18" s="2">
@@ -6745,19 +6462,16 @@
         <f>VLOOKUP(A18,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.4</v>
       </c>
-      <c r="U18" s="25" t="str">
+      <c r="U18" s="20" t="str">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
@@ -6774,28 +6488,23 @@
       <c r="F19" s="9">
         <v>1</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.45</v>
       </c>
       <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="M19" s="32"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="2">
         <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="M19" s="20">
-        <v>30</v>
-      </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="61">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="Q19" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="3"/>
-        <v>8.1578947368421062</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="4"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="R19" s="2">
@@ -6807,14 +6516,11 @@
         <v>0.8</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="5"/>
-        <v>13.5</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
@@ -6831,26 +6537,23 @@
       <c r="F20" s="9">
         <v>24</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.33</v>
       </c>
       <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P20" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="2">
@@ -6861,18 +6564,15 @@
         <f>VLOOKUP(A20,[1]TDSheet!$A:$L,12,0)</f>
         <v>1.6</v>
       </c>
-      <c r="U20" s="29" t="s">
+      <c r="U20" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -6889,28 +6589,23 @@
       <c r="F21" s="9">
         <v>4</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <f>VLOOKUP(A21,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.45</v>
       </c>
       <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="26">
-        <v>5</v>
-      </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P21" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="2">
@@ -6922,14 +6617,11 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="5"/>
-        <v>2.25</v>
-      </c>
-      <c r="Y21" s="17">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -6946,26 +6638,23 @@
       <c r="F22" s="9">
         <v>46</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="R22" s="2">
@@ -6976,19 +6665,16 @@
         <f>VLOOKUP(A22,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.6</v>
       </c>
-      <c r="U22" s="25" t="str">
+      <c r="U22" s="20" t="str">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -7005,26 +6691,23 @@
       <c r="F23" s="9">
         <v>19</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <f>VLOOKUP(A23,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="32"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="2">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="61">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="R23" s="2">
@@ -7035,18 +6718,15 @@
         <f>VLOOKUP(A23,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="29" t="s">
+      <c r="U23" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -7063,26 +6743,23 @@
       <c r="F24" s="9">
         <v>15</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <f>VLOOKUP(A24,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.17</v>
       </c>
       <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="61">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="2"/>
-        <v>52.999999999999993</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="R24" s="2">
@@ -7093,18 +6770,15 @@
         <f>VLOOKUP(A24,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="29" t="s">
+      <c r="U24" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="17">
-        <v>9.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
@@ -7121,26 +6795,23 @@
       <c r="F25" s="9">
         <v>37</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="2">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="61">
+        <v>92.5</v>
+      </c>
+      <c r="Q25" s="2">
         <f t="shared" si="2"/>
-        <v>6.9999999999999991</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="3"/>
-        <v>92.5</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" si="4"/>
         <v>92.5</v>
       </c>
       <c r="R25" s="2">
@@ -7151,18 +6822,15 @@
         <f>VLOOKUP(A25,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="29" t="s">
+      <c r="U25" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="17">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
@@ -7174,30 +6842,27 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="28">
+      <c r="F26" s="22">
         <f>20+F124</f>
         <v>13</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="P26" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="2">
@@ -7208,18 +6873,15 @@
         <f>VLOOKUP(A26,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="29" t="s">
+      <c r="U26" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="17">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
@@ -7236,26 +6898,23 @@
       <c r="F27" s="9">
         <v>62</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="2">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="61">
+        <v>310</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="R27" s="2">
@@ -7266,19 +6925,16 @@
         <f>VLOOKUP(A27,[1]TDSheet!$A:$L,12,0)</f>
         <v>2.4</v>
       </c>
-      <c r="U27" s="25" t="str">
+      <c r="U27" s="20" t="str">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
@@ -7295,28 +6951,23 @@
       <c r="F28" s="9">
         <v>11</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M28" s="32"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="2">
         <f t="shared" si="1"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M28" s="20">
-        <v>75</v>
-      </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="61">
+        <v>1.1224489795918366</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="3"/>
-        <v>8.7755102040816322</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="4"/>
         <v>1.1224489795918366</v>
       </c>
       <c r="R28" s="2">
@@ -7328,14 +6979,11 @@
         <v>6.4</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="5"/>
-        <v>37.5</v>
-      </c>
-      <c r="Y28" s="17">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
@@ -7352,26 +7000,23 @@
       <c r="F29" s="9">
         <v>67</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="M29" s="32"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="2">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="61">
+        <v>167.5</v>
+      </c>
+      <c r="Q29" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="3"/>
-        <v>167.5</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="4"/>
         <v>167.5</v>
       </c>
       <c r="R29" s="2">
@@ -7382,18 +7027,15 @@
         <f>VLOOKUP(A29,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U29" s="29" t="s">
+      <c r="U29" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -7412,28 +7054,23 @@
       <c r="F30" s="9">
         <v>42</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <f>VLOOKUP(A30,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M30" s="32"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="2">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M30" s="20">
-        <v>10</v>
-      </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="61">
+        <v>9.1304347826086971</v>
+      </c>
+      <c r="Q30" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" si="3"/>
-        <v>11.304347826086957</v>
-      </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="4"/>
         <v>9.1304347826086971</v>
       </c>
       <c r="R30" s="2">
@@ -7445,14 +7082,11 @@
         <v>0.8</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="Y30" s="17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -7469,26 +7103,23 @@
       <c r="F31" s="9">
         <v>118</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.17</v>
       </c>
       <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="M31" s="32"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="2">
         <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="61">
+        <v>34.705882352941174</v>
+      </c>
+      <c r="Q31" s="2">
         <f t="shared" si="2"/>
-        <v>52.999999999999993</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="3"/>
-        <v>34.705882352941174</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" si="4"/>
         <v>34.705882352941174</v>
       </c>
       <c r="R31" s="2">
@@ -7499,19 +7130,16 @@
         <f>VLOOKUP(A31,[1]TDSheet!$A:$L,12,0)</f>
         <v>2</v>
       </c>
-      <c r="U31" s="25" t="str">
+      <c r="U31" s="20" t="str">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="17">
-        <v>9.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
@@ -7528,26 +7156,23 @@
       <c r="F32" s="9">
         <v>37</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="L32" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="M32" s="32"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="2">
         <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="61">
+        <v>15.416666666666668</v>
+      </c>
+      <c r="Q32" s="2">
         <f t="shared" si="2"/>
-        <v>52.999999999999993</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="3"/>
-        <v>15.416666666666668</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="4"/>
         <v>15.416666666666668</v>
       </c>
       <c r="R32" s="2">
@@ -7558,19 +7183,16 @@
         <f>VLOOKUP(A32,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.8</v>
       </c>
-      <c r="U32" s="25" t="str">
+      <c r="U32" s="20" t="str">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="17">
-        <v>14.84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
@@ -7589,26 +7211,23 @@
       <c r="F33" s="9">
         <v>51</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <f>VLOOKUP(A33,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.42</v>
       </c>
       <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="M33" s="32"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="2">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="61">
+        <v>127.5</v>
+      </c>
+      <c r="Q33" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" si="3"/>
-        <v>127.5</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="4"/>
         <v>127.5</v>
       </c>
       <c r="R33" s="2">
@@ -7619,18 +7238,15 @@
         <f>VLOOKUP(A33,[1]TDSheet!$A:$L,12,0)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="U33" s="29" t="s">
+      <c r="U33" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="17">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>40</v>
       </c>
@@ -7649,28 +7265,23 @@
       <c r="F34" s="9">
         <v>60</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <f>VLOOKUP(A34,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.42</v>
       </c>
       <c r="L34" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="M34" s="32"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="2">
         <f t="shared" si="1"/>
-        <v>9.4</v>
-      </c>
-      <c r="M34" s="20">
-        <v>55</v>
-      </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="61">
+        <v>6.3829787234042552</v>
+      </c>
+      <c r="Q34" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="3"/>
-        <v>12.23404255319149</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="4"/>
         <v>6.3829787234042552</v>
       </c>
       <c r="R34" s="2">
@@ -7682,14 +7293,11 @@
         <v>5</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="5"/>
-        <v>23.099999999999998</v>
-      </c>
-      <c r="Y34" s="17">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>41</v>
       </c>
@@ -7706,28 +7314,23 @@
       <c r="F35" s="9">
         <v>106</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.6</v>
       </c>
       <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+      <c r="M35" s="32"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="2">
         <f t="shared" si="1"/>
-        <v>15.4</v>
-      </c>
-      <c r="M35" s="20">
-        <v>80</v>
-      </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="61">
+        <v>6.883116883116883</v>
+      </c>
+      <c r="Q35" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="3"/>
-        <v>12.077922077922077</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="4"/>
         <v>6.883116883116883</v>
       </c>
       <c r="R35" s="2">
@@ -7739,14 +7342,11 @@
         <v>2.4</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="Y35" s="17">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>42</v>
       </c>
@@ -7761,23 +7361,23 @@
       <c r="F36" s="9">
         <v>24</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.42</v>
       </c>
       <c r="L36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="32"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="2" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="2">
@@ -7789,11 +7389,11 @@
         <v>0</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
@@ -7810,26 +7410,23 @@
       <c r="F37" s="9">
         <v>32</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.45</v>
       </c>
       <c r="L37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="M37" s="32"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="61">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="Q37" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="3"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="4"/>
         <v>53.333333333333336</v>
       </c>
       <c r="R37" s="2">
@@ -7840,19 +7437,16 @@
         <f>VLOOKUP(A37,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.2</v>
       </c>
-      <c r="U37" s="25" t="str">
+      <c r="U37" s="20" t="str">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="17">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
@@ -7867,23 +7461,23 @@
       <c r="F38" s="9">
         <v>24</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="15">
         <f>VLOOKUP(A38,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="L38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="32"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="2" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="2">
@@ -7894,70 +7488,64 @@
         <f>VLOOKUP(A38,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U38" s="29" t="s">
+      <c r="U38" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="23">
+      <c r="C39" s="26"/>
+      <c r="D39" s="18">
         <v>12</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="18">
         <v>11</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="18">
         <v>1</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="15">
         <v>0</v>
       </c>
       <c r="L39" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M39" s="32"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="2">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="31">
-        <f>Y39/0.35</f>
-        <v>4</v>
-      </c>
-      <c r="P39" s="2">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="V39" s="2">
         <f t="shared" si="3"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="Q39" s="2">
-        <f t="shared" si="4"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="V39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
@@ -7974,28 +7562,23 @@
       <c r="F40" s="9">
         <v>-2</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="15">
         <f>VLOOKUP(A40,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="32"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M40" s="20">
-        <v>15</v>
-      </c>
-      <c r="N40" s="21"/>
-      <c r="O40" s="61">
+        <v>-2</v>
+      </c>
+      <c r="Q40" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="Q40" s="2">
-        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="R40" s="2">
@@ -8007,14 +7590,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="5"/>
-        <v>5.25</v>
-      </c>
-      <c r="Y40" s="17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>47</v>
       </c>
@@ -8031,26 +7611,23 @@
       <c r="F41" s="9">
         <v>31</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="15">
         <f>VLOOKUP(A41,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L41" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M41" s="32"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="2">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="61">
+        <v>14.09090909090909</v>
+      </c>
+      <c r="Q41" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="3"/>
-        <v>14.09090909090909</v>
-      </c>
-      <c r="Q41" s="2">
-        <f t="shared" si="4"/>
         <v>14.09090909090909</v>
       </c>
       <c r="R41" s="2">
@@ -8062,14 +7639,11 @@
         <v>0.4</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>48</v>
       </c>
@@ -8088,28 +7662,23 @@
       <c r="F42" s="9">
         <v>12</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="15">
         <f>VLOOKUP(A42,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L42" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="32"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M42" s="20">
-        <v>12</v>
-      </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="61">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P42" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="R42" s="2">
@@ -8121,14 +7690,11 @@
         <v>1</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="5"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="Y42" s="17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
@@ -8145,26 +7711,23 @@
       <c r="F43" s="9">
         <v>345.375</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="15">
         <f>VLOOKUP(A43,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L43" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2721999999999998</v>
+      </c>
+      <c r="M43" s="32"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="2">
         <f t="shared" si="1"/>
-        <v>8.2721999999999998</v>
-      </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="61">
+        <v>41.751287444694277</v>
+      </c>
+      <c r="Q43" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P43" s="2">
-        <f t="shared" si="3"/>
-        <v>41.751287444694277</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="4"/>
         <v>41.751287444694277</v>
       </c>
       <c r="R43" s="2">
@@ -8175,19 +7738,16 @@
         <f>VLOOKUP(A43,[1]TDSheet!$A:$L,12,0)</f>
         <v>13.5532</v>
       </c>
-      <c r="U43" s="25" t="str">
+      <c r="U43" s="20" t="str">
         <f>VLOOKUP(A43,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>50</v>
       </c>
@@ -8206,28 +7766,23 @@
       <c r="F44" s="9">
         <v>438.84500000000003</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="15">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L44" s="2">
+        <f t="shared" si="0"/>
+        <v>88.378999999999991</v>
+      </c>
+      <c r="M44" s="32"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="2">
         <f t="shared" si="1"/>
-        <v>88.378999999999991</v>
-      </c>
-      <c r="M44" s="20">
-        <v>630</v>
-      </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="61">
+        <v>4.9654895393702132</v>
+      </c>
+      <c r="Q44" s="2">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="P44" s="2">
-        <f t="shared" si="3"/>
-        <v>12.093879767818148</v>
-      </c>
-      <c r="Q44" s="2">
-        <f t="shared" si="4"/>
         <v>4.9654895393702132</v>
       </c>
       <c r="R44" s="2">
@@ -8239,49 +7794,44 @@
         <v>73.835999999999999</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="5"/>
-        <v>630</v>
-      </c>
-      <c r="Y44" s="17">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="18">
         <v>-8.8970000000000002</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18">
         <v>2.9670000000000001</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="18">
         <v>-11.864000000000001</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="15">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$G,7,0)</f>
         <v>0</v>
       </c>
       <c r="L45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="M45" s="32"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="2">
         <f t="shared" si="1"/>
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="31">
-        <v>2</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" si="3"/>
         <v>-19.993259184361307</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-19.993259184361307</v>
       </c>
       <c r="R45" s="2">
@@ -8292,19 +7842,16 @@
         <f>VLOOKUP(A45,[1]TDSheet!$A:$L,12,0)</f>
         <v>1.7794000000000001</v>
       </c>
-      <c r="U45" s="32" t="str">
+      <c r="U45" s="24" t="str">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$T,20,0)</f>
         <v>не в матрице</v>
       </c>
       <c r="V45" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>52</v>
       </c>
@@ -8321,23 +7868,23 @@
       <c r="F46" s="9">
         <v>67.650000000000006</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="15">
         <f>VLOOKUP(A46,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="32"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="20"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="2" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R46" s="2">
@@ -8349,11 +7896,11 @@
         <v>7.5239999999999991</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>53</v>
       </c>
@@ -8372,26 +7919,23 @@
       <c r="F47" s="9">
         <v>133.37700000000001</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="15">
         <f>VLOOKUP(A47,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L47" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1710000000000003</v>
+      </c>
+      <c r="M47" s="32"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="2">
         <f t="shared" si="1"/>
-        <v>3.1710000000000003</v>
-      </c>
-      <c r="M47" s="20"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="61">
+        <v>42.061494796594133</v>
+      </c>
+      <c r="Q47" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P47" s="2">
-        <f t="shared" si="3"/>
-        <v>42.061494796594133</v>
-      </c>
-      <c r="Q47" s="2">
-        <f t="shared" si="4"/>
         <v>42.061494796594133</v>
       </c>
       <c r="R47" s="2">
@@ -8403,67 +7947,58 @@
         <v>13.890799999999999</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="23">
+      <c r="C48" s="26"/>
+      <c r="D48" s="18">
         <v>10.705</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23">
+      <c r="E48" s="18"/>
+      <c r="F48" s="18">
         <v>10.705</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="15">
         <v>0</v>
       </c>
       <c r="L48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="32"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="20"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="31">
-        <f>Y48</f>
-        <v>3</v>
-      </c>
-      <c r="P48" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q48" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="V48" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="V48" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>55</v>
       </c>
@@ -8482,26 +8017,23 @@
       <c r="F49" s="9">
         <v>968.49199999999996</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="15">
         <f>VLOOKUP(A49,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L49" s="2">
+        <f t="shared" si="0"/>
+        <v>34.25</v>
+      </c>
+      <c r="M49" s="32"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="2">
         <f t="shared" si="1"/>
-        <v>34.25</v>
-      </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="61">
+        <v>28.277138686131387</v>
+      </c>
+      <c r="Q49" s="2">
         <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="P49" s="2">
-        <f t="shared" si="3"/>
-        <v>28.277138686131387</v>
-      </c>
-      <c r="Q49" s="2">
-        <f t="shared" si="4"/>
         <v>28.277138686131387</v>
       </c>
       <c r="R49" s="2">
@@ -8512,18 +8044,15 @@
         <f>VLOOKUP(A49,[1]TDSheet!$A:$L,12,0)</f>
         <v>112.973</v>
       </c>
-      <c r="U49" s="29" t="s">
+      <c r="U49" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V49" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="17">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>56</v>
       </c>
@@ -8540,26 +8069,23 @@
       <c r="F50" s="9">
         <v>413.26499999999999</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="15">
         <f>VLOOKUP(A50,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="32"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P50" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q50" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R50" s="2">
@@ -8571,45 +8097,42 @@
         <v>0</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="18">
         <v>276.363</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23">
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18">
         <v>178.59700000000001</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="15">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$G,7,0)</f>
         <v>0</v>
       </c>
       <c r="L51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="32"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="20"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="2" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R51" s="2">
@@ -8620,16 +8143,16 @@
         <f>VLOOKUP(A51,[1]TDSheet!$A:$L,12,0)</f>
         <v>6.3220000000000001</v>
       </c>
-      <c r="U51" s="24" t="str">
+      <c r="U51" s="19" t="str">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$T,20,0)</f>
         <v>не в матрице / необходимо увеличить продажи</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>58</v>
       </c>
@@ -8648,28 +8171,23 @@
       <c r="F52" s="9">
         <v>235.624</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="15">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L52" s="2">
+        <f t="shared" si="0"/>
+        <v>29.35</v>
+      </c>
+      <c r="M52" s="32"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="2">
         <f t="shared" si="1"/>
-        <v>29.35</v>
-      </c>
-      <c r="M52" s="20">
-        <v>120</v>
-      </c>
-      <c r="N52" s="21"/>
-      <c r="O52" s="61">
+        <v>8.0280749574105617</v>
+      </c>
+      <c r="Q52" s="2">
         <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="P52" s="2">
-        <f t="shared" si="3"/>
-        <v>12.116660988074958</v>
-      </c>
-      <c r="Q52" s="2">
-        <f t="shared" si="4"/>
         <v>8.0280749574105617</v>
       </c>
       <c r="R52" s="2">
@@ -8681,14 +8199,11 @@
         <v>34.632999999999996</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="Y52" s="17">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>59</v>
       </c>
@@ -8705,23 +8220,23 @@
       <c r="F53" s="9">
         <v>90.378</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="15">
         <f>VLOOKUP(A53,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="M53" s="32"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="2">
         <f t="shared" si="1"/>
-        <v>0.88080000000000003</v>
-      </c>
-      <c r="M53" s="20"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="2">
-        <f t="shared" si="3"/>
         <v>102.60899182561307</v>
       </c>
       <c r="Q53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>102.60899182561307</v>
       </c>
       <c r="R53" s="2">
@@ -8732,69 +8247,63 @@
         <f>VLOOKUP(A53,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.17799999999999999</v>
       </c>
-      <c r="U53" s="25" t="str">
+      <c r="U53" s="20" t="str">
         <f>VLOOKUP(A53,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="23">
+      <c r="C54" s="26"/>
+      <c r="D54" s="18">
         <v>14.996</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23">
+      <c r="E54" s="18"/>
+      <c r="F54" s="18">
         <v>14.996</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="15">
         <v>0</v>
       </c>
       <c r="L54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="32"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="20"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="31">
-        <f>Y54</f>
-        <v>3</v>
-      </c>
-      <c r="P54" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q54" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="V54" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q54" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="V54" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>61</v>
       </c>
@@ -8811,26 +8320,23 @@
       <c r="F55" s="9">
         <v>122.99</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="15">
         <f>VLOOKUP(A55,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.228</v>
+      </c>
+      <c r="M55" s="32"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="2">
         <f t="shared" si="1"/>
-        <v>1.228</v>
-      </c>
-      <c r="M55" s="20"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="61">
+        <v>100.15472312703582</v>
+      </c>
+      <c r="Q55" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P55" s="2">
-        <f t="shared" si="3"/>
-        <v>100.15472312703582</v>
-      </c>
-      <c r="Q55" s="2">
-        <f t="shared" si="4"/>
         <v>100.15472312703582</v>
       </c>
       <c r="R55" s="2">
@@ -8841,18 +8347,15 @@
         <f>VLOOKUP(A55,[1]TDSheet!$A:$L,12,0)</f>
         <v>7.3666</v>
       </c>
-      <c r="U55" s="29" t="s">
+      <c r="U55" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>62</v>
       </c>
@@ -8869,28 +8372,23 @@
       <c r="F56" s="9">
         <v>114.76</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="15">
         <f>VLOOKUP(A56,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L56" s="2">
+        <f t="shared" si="0"/>
+        <v>23.247</v>
+      </c>
+      <c r="M56" s="32"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="2">
         <f t="shared" si="1"/>
-        <v>23.247</v>
-      </c>
-      <c r="M56" s="20">
-        <v>165</v>
-      </c>
-      <c r="N56" s="21"/>
-      <c r="O56" s="61">
+        <v>4.9365509528111158</v>
+      </c>
+      <c r="Q56" s="2">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="P56" s="2">
-        <f t="shared" si="3"/>
-        <v>12.034240977330407</v>
-      </c>
-      <c r="Q56" s="2">
-        <f t="shared" si="4"/>
         <v>4.9365509528111158</v>
       </c>
       <c r="R56" s="2">
@@ -8902,14 +8400,11 @@
         <v>5.125</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="Y56" s="17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>63</v>
       </c>
@@ -8922,28 +8417,23 @@
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="17">
+      <c r="G57" s="15">
         <f>VLOOKUP(A57,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="32"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="26">
-        <v>20</v>
-      </c>
-      <c r="N57" s="21"/>
-      <c r="O57" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q57" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="P57" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q57" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R57" s="2">
@@ -8955,14 +8445,11 @@
         <v>0</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="Y57" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>64</v>
       </c>
@@ -8977,26 +8464,23 @@
       <c r="F58" s="9">
         <v>52.844999999999999</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="15">
         <f>VLOOKUP(A58,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="32"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="20"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q58" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="P58" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q58" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R58" s="2">
@@ -9007,19 +8491,16 @@
         <f>VLOOKUP(A58,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U58" s="25" t="str">
+      <c r="U58" s="20" t="str">
         <f>VLOOKUP(A58,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>65</v>
       </c>
@@ -9034,23 +8515,23 @@
       <c r="F59" s="9">
         <v>253.25700000000001</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="15">
         <f>VLOOKUP(A59,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="32"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="20"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="2" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="2">
@@ -9061,16 +8542,16 @@
         <f>VLOOKUP(A59,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U59" s="25" t="str">
+      <c r="U59" s="20" t="str">
         <f>VLOOKUP(A59,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V59" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>66</v>
       </c>
@@ -9089,26 +8570,23 @@
       <c r="F60" s="9">
         <v>465.73</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="15">
         <f>VLOOKUP(A60,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L60" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="M60" s="32"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="2">
         <f t="shared" si="1"/>
-        <v>4.6159999999999997</v>
-      </c>
-      <c r="M60" s="20"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="61">
+        <v>100.89471403812826</v>
+      </c>
+      <c r="Q60" s="2">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="P60" s="2">
-        <f t="shared" si="3"/>
-        <v>100.89471403812826</v>
-      </c>
-      <c r="Q60" s="2">
-        <f t="shared" si="4"/>
         <v>100.89471403812826</v>
       </c>
       <c r="R60" s="2">
@@ -9120,14 +8598,11 @@
         <v>62.488999999999997</v>
       </c>
       <c r="V60" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="17">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>67</v>
       </c>
@@ -9146,26 +8621,23 @@
       <c r="F61" s="9">
         <v>56.274000000000001</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="15">
         <f>VLOOKUP(A61,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L61" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9861999999999997</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="2">
         <f t="shared" si="1"/>
-        <v>2.9861999999999997</v>
-      </c>
-      <c r="M61" s="20"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="61">
+        <v>18.844685553546316</v>
+      </c>
+      <c r="Q61" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="P61" s="2">
-        <f t="shared" si="3"/>
-        <v>18.844685553546316</v>
-      </c>
-      <c r="Q61" s="2">
-        <f t="shared" si="4"/>
         <v>18.844685553546316</v>
       </c>
       <c r="R61" s="2">
@@ -9177,14 +8649,11 @@
         <v>3.1576</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>68</v>
       </c>
@@ -9203,26 +8672,23 @@
       <c r="F62" s="9">
         <v>46.884999999999998</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="15">
         <f>VLOOKUP(A62,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="2">
         <f t="shared" si="1"/>
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="M62" s="20"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="61">
+        <v>174.94402985074626</v>
+      </c>
+      <c r="Q62" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="P62" s="2">
-        <f t="shared" si="3"/>
-        <v>174.94402985074626</v>
-      </c>
-      <c r="Q62" s="2">
-        <f t="shared" si="4"/>
         <v>174.94402985074626</v>
       </c>
       <c r="R62" s="2">
@@ -9234,14 +8700,11 @@
         <v>2.1520000000000001</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>69</v>
       </c>
@@ -9258,26 +8721,23 @@
       <c r="F63" s="9">
         <v>116.23</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="15">
         <f>VLOOKUP(A63,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L63" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8044000000000002</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="2">
         <f t="shared" si="1"/>
-        <v>2.8044000000000002</v>
-      </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="61">
+        <v>41.445585508486658</v>
+      </c>
+      <c r="Q63" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="P63" s="2">
-        <f t="shared" si="3"/>
-        <v>41.445585508486658</v>
-      </c>
-      <c r="Q63" s="2">
-        <f t="shared" si="4"/>
         <v>41.445585508486658</v>
       </c>
       <c r="R63" s="2">
@@ -9288,19 +8748,16 @@
         <f>VLOOKUP(A63,[1]TDSheet!$A:$L,12,0)</f>
         <v>3.0064000000000002</v>
       </c>
-      <c r="U63" s="25" t="str">
+      <c r="U63" s="20" t="str">
         <f>VLOOKUP(A63,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>70</v>
       </c>
@@ -9315,26 +8772,23 @@
       <c r="F64" s="9">
         <v>8.2550000000000008</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="15">
         <f>VLOOKUP(A64,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L64" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="20"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q64" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P64" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q64" s="2" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R64" s="2">
@@ -9345,19 +8799,16 @@
         <f>VLOOKUP(A64,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.15</v>
       </c>
-      <c r="U64" s="25" t="str">
+      <c r="U64" s="20" t="str">
         <f>VLOOKUP(A64,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V64" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>71</v>
       </c>
@@ -9374,28 +8825,23 @@
       <c r="F65" s="9">
         <v>57.817</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="15">
         <f>VLOOKUP(A65,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L65" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3403999999999998</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="2">
         <f t="shared" si="1"/>
-        <v>7.3403999999999998</v>
-      </c>
-      <c r="M65" s="20">
-        <v>30</v>
-      </c>
-      <c r="N65" s="21"/>
-      <c r="O65" s="61">
+        <v>7.876546237262275</v>
+      </c>
+      <c r="Q65" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="P65" s="2">
-        <f t="shared" si="3"/>
-        <v>11.963516974551796</v>
-      </c>
-      <c r="Q65" s="2">
-        <f t="shared" si="4"/>
         <v>7.876546237262275</v>
       </c>
       <c r="R65" s="2">
@@ -9407,14 +8853,11 @@
         <v>7.9042000000000003</v>
       </c>
       <c r="V65" s="2">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="Y65" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>72</v>
       </c>
@@ -9433,26 +8876,23 @@
       <c r="F66" s="9">
         <v>189.774</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="15">
         <f>VLOOKUP(A66,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M66" s="32"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="2">
         <f t="shared" si="1"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="M66" s="20"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="61">
+        <v>1317.875</v>
+      </c>
+      <c r="Q66" s="2">
         <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="P66" s="2">
-        <f t="shared" si="3"/>
-        <v>1317.875</v>
-      </c>
-      <c r="Q66" s="2">
-        <f t="shared" si="4"/>
         <v>1317.875</v>
       </c>
       <c r="R66" s="2">
@@ -9464,14 +8904,11 @@
         <v>23.734200000000001</v>
       </c>
       <c r="V66" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>73</v>
       </c>
@@ -9490,28 +8927,23 @@
       <c r="F67" s="9">
         <v>128.15100000000001</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="15">
         <f>VLOOKUP(A67,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L67" s="2">
+        <f t="shared" si="0"/>
+        <v>17.2212</v>
+      </c>
+      <c r="M67" s="32"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="2">
         <f t="shared" si="1"/>
-        <v>17.2212</v>
-      </c>
-      <c r="M67" s="20">
-        <v>80</v>
-      </c>
-      <c r="N67" s="21"/>
-      <c r="O67" s="61">
+        <v>7.4414674935544571</v>
+      </c>
+      <c r="Q67" s="2">
         <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="P67" s="2">
-        <f t="shared" si="3"/>
-        <v>12.086904513042064</v>
-      </c>
-      <c r="Q67" s="2">
-        <f t="shared" si="4"/>
         <v>7.4414674935544571</v>
       </c>
       <c r="R67" s="2">
@@ -9523,14 +8955,11 @@
         <v>4.0200000000000005</v>
       </c>
       <c r="V67" s="2">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="Y67" s="17">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>74</v>
       </c>
@@ -9545,23 +8974,23 @@
       <c r="F68" s="9">
         <v>127.895</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="15">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L68" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="32"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="20"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="2" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q68" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R68" s="2">
@@ -9572,16 +9001,16 @@
         <f>VLOOKUP(A68,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="U68" s="25" t="str">
+      <c r="U68" s="20" t="str">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V68" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>75</v>
       </c>
@@ -9596,23 +9025,23 @@
       <c r="F69" s="9">
         <v>102.089</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="15">
         <f>VLOOKUP(A69,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L69" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="32"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="2" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q69" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R69" s="2">
@@ -9624,11 +9053,11 @@
         <v>4.7548000000000004</v>
       </c>
       <c r="V69" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>76</v>
       </c>
@@ -9647,23 +9076,23 @@
       <c r="F70" s="9">
         <v>100.232</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="15">
         <f>VLOOKUP(A70,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L70" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5446</v>
+      </c>
+      <c r="M70" s="32"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="2">
         <f t="shared" si="1"/>
-        <v>5.5446</v>
-      </c>
-      <c r="M70" s="20"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="2">
-        <f t="shared" si="3"/>
         <v>18.077408649857517</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18.077408649857517</v>
       </c>
       <c r="R70" s="2">
@@ -9675,11 +9104,11 @@
         <v>0</v>
       </c>
       <c r="V70" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>77</v>
       </c>
@@ -9694,23 +9123,23 @@
       <c r="F71" s="9">
         <v>71.680000000000007</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="15">
         <f>VLOOKUP(A71,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" ref="L71:L125" si="6">E71/5</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="20"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="61"/>
+        <f t="shared" ref="L71:L125" si="4">E71/5</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="32"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="27"/>
       <c r="P71" s="2" t="e">
-        <f t="shared" ref="P71:P125" si="7">(F71+M71)/L71</f>
+        <f t="shared" ref="P71:P125" si="5">(F71+M71)/L71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q71" s="2" t="e">
-        <f t="shared" ref="Q71:Q125" si="8">F71/L71</f>
+        <f t="shared" ref="Q71:Q125" si="6">F71/L71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R71" s="2">
@@ -9722,11 +9151,11 @@
         <v>0</v>
       </c>
       <c r="V71" s="2">
-        <f t="shared" ref="V71:V125" si="9">M71*G71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V71:V125" si="7">M71*G71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>78</v>
       </c>
@@ -9743,28 +9172,23 @@
       <c r="F72" s="9">
         <v>-15.205</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="15">
         <f>VLOOKUP(A72,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L72" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9254000000000002</v>
+      </c>
+      <c r="M72" s="32"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="2">
+        <f t="shared" si="5"/>
+        <v>-7.8970603510958757</v>
+      </c>
+      <c r="Q72" s="2">
         <f t="shared" si="6"/>
-        <v>1.9254000000000002</v>
-      </c>
-      <c r="M72" s="20">
-        <v>25</v>
-      </c>
-      <c r="N72" s="21"/>
-      <c r="O72" s="61">
-        <f t="shared" ref="O72:O134" si="10">Y72/G72</f>
-        <v>18</v>
-      </c>
-      <c r="P72" s="2">
-        <f t="shared" si="7"/>
-        <v>5.0872545964474911</v>
-      </c>
-      <c r="Q72" s="2">
-        <f t="shared" si="8"/>
         <v>-7.8970603510958757</v>
       </c>
       <c r="R72" s="2">
@@ -9776,14 +9200,11 @@
         <v>0.8103999999999999</v>
       </c>
       <c r="V72" s="2">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="Y72" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>79</v>
       </c>
@@ -9802,26 +9223,23 @@
       <c r="F73" s="9">
         <v>2486.6959999999999</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="15">
         <f>VLOOKUP(A73,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L73" s="2">
+        <f t="shared" si="4"/>
+        <v>196.6096</v>
+      </c>
+      <c r="M73" s="32"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="2">
+        <f t="shared" si="5"/>
+        <v>12.647886980086424</v>
+      </c>
+      <c r="Q73" s="2">
         <f t="shared" si="6"/>
-        <v>196.6096</v>
-      </c>
-      <c r="M73" s="20"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="61">
-        <f t="shared" si="10"/>
-        <v>485</v>
-      </c>
-      <c r="P73" s="2">
-        <f t="shared" si="7"/>
-        <v>12.647886980086424</v>
-      </c>
-      <c r="Q73" s="2">
-        <f t="shared" si="8"/>
         <v>12.647886980086424</v>
       </c>
       <c r="R73" s="2">
@@ -9833,14 +9251,11 @@
         <v>291.51060000000001</v>
       </c>
       <c r="V73" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="17">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>80</v>
       </c>
@@ -9855,26 +9270,23 @@
       <c r="F74" s="9">
         <v>127.929</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="15">
         <f>VLOOKUP(A74,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L74" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="32"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q74" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="20"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="61">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="P74" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q74" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R74" s="2">
@@ -9885,19 +9297,16 @@
         <f>VLOOKUP(A74,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.46600000000000003</v>
       </c>
-      <c r="U74" s="25" t="str">
+      <c r="U74" s="20" t="str">
         <f>VLOOKUP(A74,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V74" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>81</v>
       </c>
@@ -9912,26 +9321,23 @@
       <c r="F75" s="9">
         <v>31.92</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="15">
         <f>VLOOKUP(A75,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L75" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="32"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q75" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="61">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="P75" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q75" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R75" s="2">
@@ -9942,19 +9348,16 @@
         <f>VLOOKUP(A75,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.2792</v>
       </c>
-      <c r="U75" s="25" t="str">
+      <c r="U75" s="20" t="str">
         <f>VLOOKUP(A75,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V75" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y75" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>82</v>
       </c>
@@ -9969,23 +9372,23 @@
       <c r="F76" s="9">
         <v>58.478000000000002</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="15">
         <f>VLOOKUP(A76,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L76" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="32"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q76" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="20"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q76" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R76" s="2">
@@ -9996,16 +9399,16 @@
         <f>VLOOKUP(A76,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="25" t="str">
+      <c r="U76" s="20" t="str">
         <f>VLOOKUP(A76,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V76" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>83</v>
       </c>
@@ -10022,23 +9425,23 @@
       <c r="F77" s="9">
         <v>167.643</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="15">
         <f>VLOOKUP(A77,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L77" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24580000000000002</v>
+      </c>
+      <c r="M77" s="32"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="2">
+        <f t="shared" si="5"/>
+        <v>682.03010577705447</v>
+      </c>
+      <c r="Q77" s="2">
         <f t="shared" si="6"/>
-        <v>0.24580000000000002</v>
-      </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="2">
-        <f t="shared" si="7"/>
-        <v>682.03010577705447</v>
-      </c>
-      <c r="Q77" s="2">
-        <f t="shared" si="8"/>
         <v>682.03010577705447</v>
       </c>
       <c r="R77" s="2">
@@ -10049,16 +9452,16 @@
         <f>VLOOKUP(A77,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.248</v>
       </c>
-      <c r="U77" s="25" t="str">
+      <c r="U77" s="20" t="str">
         <f>VLOOKUP(A77,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V77" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>84</v>
       </c>
@@ -10077,28 +9480,23 @@
       <c r="F78" s="9">
         <v>44.116</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="15">
         <f>VLOOKUP(A78,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L78" s="2">
+        <f t="shared" si="4"/>
+        <v>3.9018000000000002</v>
+      </c>
+      <c r="M78" s="32"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="2">
+        <f t="shared" si="5"/>
+        <v>11.306576451893998</v>
+      </c>
+      <c r="Q78" s="2">
         <f t="shared" si="6"/>
-        <v>3.9018000000000002</v>
-      </c>
-      <c r="M78" s="20">
-        <v>5</v>
-      </c>
-      <c r="N78" s="21"/>
-      <c r="O78" s="61">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="P78" s="2">
-        <f t="shared" si="7"/>
-        <v>12.588036290942641</v>
-      </c>
-      <c r="Q78" s="2">
-        <f t="shared" si="8"/>
         <v>11.306576451893998</v>
       </c>
       <c r="R78" s="2">
@@ -10110,14 +9508,11 @@
         <v>1.052</v>
       </c>
       <c r="V78" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="Y78" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>85</v>
       </c>
@@ -10134,26 +9529,23 @@
       <c r="F79" s="9">
         <v>99.903999999999996</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="15">
         <f>VLOOKUP(A79,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L79" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="M79" s="32"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="2">
+        <f t="shared" si="5"/>
+        <v>186.04096834264431</v>
+      </c>
+      <c r="Q79" s="2">
         <f t="shared" si="6"/>
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="61">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="P79" s="2">
-        <f t="shared" si="7"/>
-        <v>186.04096834264431</v>
-      </c>
-      <c r="Q79" s="2">
-        <f t="shared" si="8"/>
         <v>186.04096834264431</v>
       </c>
       <c r="R79" s="2">
@@ -10164,19 +9556,16 @@
         <f>VLOOKUP(A79,[1]TDSheet!$A:$L,12,0)</f>
         <v>4.3029999999999999</v>
       </c>
-      <c r="U79" s="25" t="str">
+      <c r="U79" s="20" t="str">
         <f>VLOOKUP(A79,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V79" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>86</v>
       </c>
@@ -10195,28 +9584,23 @@
       <c r="F80" s="9">
         <v>16.260000000000002</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="15">
         <f>VLOOKUP(A80,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L80" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8518000000000001</v>
+      </c>
+      <c r="M80" s="32"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="2">
+        <f t="shared" si="5"/>
+        <v>8.7806458580840268</v>
+      </c>
+      <c r="Q80" s="2">
         <f t="shared" si="6"/>
-        <v>1.8518000000000001</v>
-      </c>
-      <c r="M80" s="20">
-        <v>5</v>
-      </c>
-      <c r="N80" s="21"/>
-      <c r="O80" s="61">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="P80" s="2">
-        <f t="shared" si="7"/>
-        <v>11.480721460200886</v>
-      </c>
-      <c r="Q80" s="2">
-        <f t="shared" si="8"/>
         <v>8.7806458580840268</v>
       </c>
       <c r="R80" s="2">
@@ -10228,14 +9612,11 @@
         <v>1.9987999999999999</v>
       </c>
       <c r="V80" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="Y80" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>87</v>
       </c>
@@ -10254,28 +9635,23 @@
       <c r="F81" s="9">
         <v>16.456</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="15">
         <f>VLOOKUP(A81,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L81" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="M81" s="32"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="2">
+        <f t="shared" si="5"/>
+        <v>6.0433345574733748</v>
+      </c>
+      <c r="Q81" s="2">
         <f t="shared" si="6"/>
-        <v>2.7229999999999999</v>
-      </c>
-      <c r="M81" s="20">
-        <v>15</v>
-      </c>
-      <c r="N81" s="21"/>
-      <c r="O81" s="61">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="P81" s="2">
-        <f t="shared" si="7"/>
-        <v>11.551964744766801</v>
-      </c>
-      <c r="Q81" s="2">
-        <f t="shared" si="8"/>
         <v>6.0433345574733748</v>
       </c>
       <c r="R81" s="2">
@@ -10287,14 +9663,11 @@
         <v>2.5783999999999998</v>
       </c>
       <c r="V81" s="2">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="Y81" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>88</v>
       </c>
@@ -10311,26 +9684,23 @@
       <c r="F82" s="9">
         <v>74.658000000000001</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="15">
         <f>VLOOKUP(A82,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L82" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4034</v>
+      </c>
+      <c r="M82" s="32"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="2">
+        <f t="shared" si="5"/>
+        <v>21.936298995122524</v>
+      </c>
+      <c r="Q82" s="2">
         <f t="shared" si="6"/>
-        <v>3.4034</v>
-      </c>
-      <c r="M82" s="20"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="61">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="P82" s="2">
-        <f t="shared" si="7"/>
-        <v>21.936298995122524</v>
-      </c>
-      <c r="Q82" s="2">
-        <f t="shared" si="8"/>
         <v>21.936298995122524</v>
       </c>
       <c r="R82" s="2">
@@ -10341,19 +9711,16 @@
         <f>VLOOKUP(A82,[1]TDSheet!$A:$L,12,0)</f>
         <v>1.7292000000000001</v>
       </c>
-      <c r="U82" s="25" t="str">
+      <c r="U82" s="20" t="str">
         <f>VLOOKUP(A82,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y82" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>89</v>
       </c>
@@ -10368,25 +9735,23 @@
       <c r="F83" s="9">
         <v>0.39500000000000002</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G83" s="15">
         <f>VLOOKUP(A83,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L83" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="32"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q83" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="26">
-        <v>10</v>
-      </c>
-      <c r="N83" s="21"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q83" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R83" s="2">
@@ -10398,11 +9763,11 @@
         <v>0</v>
       </c>
       <c r="V83" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>90</v>
       </c>
@@ -10421,28 +9786,23 @@
       <c r="F84" s="9">
         <v>7</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="15">
         <f>VLOOKUP(A84,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L84" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="M84" s="32"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="2">
+        <f t="shared" si="5"/>
+        <v>8.75</v>
+      </c>
+      <c r="Q84" s="2">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="M84" s="20">
-        <v>5</v>
-      </c>
-      <c r="N84" s="21"/>
-      <c r="O84" s="61">
-        <f t="shared" si="10"/>
-        <v>6.0000000000000009</v>
-      </c>
-      <c r="P84" s="2">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="Q84" s="2">
-        <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
       <c r="R84" s="2">
@@ -10454,14 +9814,11 @@
         <v>0.2</v>
       </c>
       <c r="V84" s="2">
-        <f t="shared" si="9"/>
-        <v>1.75</v>
-      </c>
-      <c r="Y84" s="17">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>91</v>
       </c>
@@ -10477,32 +9834,27 @@
       <c r="E85" s="9">
         <v>16</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F85" s="22">
         <f>17+F125</f>
         <v>15</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="15">
         <f>VLOOKUP(A85,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L85" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="M85" s="32"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6875</v>
+      </c>
+      <c r="Q85" s="2">
         <f t="shared" si="6"/>
-        <v>3.2</v>
-      </c>
-      <c r="M85" s="20">
-        <v>25</v>
-      </c>
-      <c r="N85" s="21"/>
-      <c r="O85" s="61">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="P85" s="2">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q85" s="2">
-        <f t="shared" si="8"/>
         <v>4.6875</v>
       </c>
       <c r="R85" s="2">
@@ -10514,14 +9866,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V85" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="Y85" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>92</v>
       </c>
@@ -10540,26 +9889,23 @@
       <c r="F86" s="9">
         <v>20</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="15">
         <f>VLOOKUP(A86,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L86" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="M86" s="32"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="2">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="Q86" s="2">
         <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="M86" s="20"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="61">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="P86" s="2">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="Q86" s="2">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="R86" s="2">
@@ -10571,14 +9917,11 @@
         <v>2</v>
       </c>
       <c r="V86" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>93</v>
       </c>
@@ -10595,23 +9938,23 @@
       <c r="F87" s="9">
         <v>178</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="15">
         <f>VLOOKUP(A87,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L87" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="M87" s="32"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="2">
+        <f t="shared" si="5"/>
+        <v>74.166666666666671</v>
+      </c>
+      <c r="Q87" s="2">
         <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
-      <c r="M87" s="20"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="2">
-        <f t="shared" si="7"/>
-        <v>74.166666666666671</v>
-      </c>
-      <c r="Q87" s="2">
-        <f t="shared" si="8"/>
         <v>74.166666666666671</v>
       </c>
       <c r="R87" s="2">
@@ -10622,16 +9965,16 @@
         <f>VLOOKUP(A87,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.8</v>
       </c>
-      <c r="U87" s="25" t="str">
+      <c r="U87" s="20" t="str">
         <f>VLOOKUP(A87,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V87" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>94</v>
       </c>
@@ -10648,26 +9991,23 @@
       <c r="F88" s="9">
         <v>35</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="15">
         <f>VLOOKUP(A88,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L88" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="M88" s="32"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="Q88" s="2">
         <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="M88" s="20"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="61">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P88" s="2">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="Q88" s="2">
-        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="R88" s="2">
@@ -10679,14 +10019,11 @@
         <v>0</v>
       </c>
       <c r="V88" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>95</v>
       </c>
@@ -10705,26 +10042,23 @@
       <c r="F89" s="9">
         <v>11</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="15">
         <f>VLOOKUP(A89,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L89" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="M89" s="32"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="2">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="Q89" s="2">
         <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="M89" s="20"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="61">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P89" s="2">
-        <f t="shared" si="7"/>
-        <v>27.5</v>
-      </c>
-      <c r="Q89" s="2">
-        <f t="shared" si="8"/>
         <v>27.5</v>
       </c>
       <c r="R89" s="2">
@@ -10736,14 +10070,11 @@
         <v>-0.2</v>
       </c>
       <c r="V89" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>96</v>
       </c>
@@ -10760,28 +10091,23 @@
       <c r="F90" s="9">
         <v>111.752</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="15">
         <f>VLOOKUP(A90,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L90" s="2">
+        <f t="shared" si="4"/>
+        <v>20.206399999999999</v>
+      </c>
+      <c r="M90" s="32"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="2">
+        <f t="shared" si="5"/>
+        <v>5.5305249821838629</v>
+      </c>
+      <c r="Q90" s="2">
         <f t="shared" si="6"/>
-        <v>20.206399999999999</v>
-      </c>
-      <c r="M90" s="20">
-        <v>130</v>
-      </c>
-      <c r="N90" s="21"/>
-      <c r="O90" s="61">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="P90" s="2">
-        <f t="shared" si="7"/>
-        <v>11.964130176577719</v>
-      </c>
-      <c r="Q90" s="2">
-        <f t="shared" si="8"/>
         <v>5.5305249821838629</v>
       </c>
       <c r="R90" s="2">
@@ -10793,14 +10119,11 @@
         <v>0.27160000000000001</v>
       </c>
       <c r="V90" s="2">
-        <f t="shared" si="9"/>
-        <v>130</v>
-      </c>
-      <c r="Y90" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>97</v>
       </c>
@@ -10819,26 +10142,23 @@
       <c r="F91" s="9">
         <v>46</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G91" s="15">
         <f>VLOOKUP(A91,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.45</v>
       </c>
       <c r="L91" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="M91" s="32"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="2">
+        <f t="shared" si="5"/>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="Q91" s="2">
         <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="M91" s="20"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="61">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="P91" s="2">
-        <f t="shared" si="7"/>
-        <v>76.666666666666671</v>
-      </c>
-      <c r="Q91" s="2">
-        <f t="shared" si="8"/>
         <v>76.666666666666671</v>
       </c>
       <c r="R91" s="2">
@@ -10849,19 +10169,16 @@
         <f>VLOOKUP(A91,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.4</v>
       </c>
-      <c r="U91" s="25" t="str">
+      <c r="U91" s="20" t="str">
         <f>VLOOKUP(A91,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V91" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y91" s="17">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>98</v>
       </c>
@@ -10876,26 +10193,23 @@
       <c r="F92" s="9">
         <v>16</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="15">
         <f>VLOOKUP(A92,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L92" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="32"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q92" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="20"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="61">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="P92" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q92" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R92" s="2">
@@ -10907,14 +10221,11 @@
         <v>0</v>
       </c>
       <c r="V92" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="17">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>99</v>
       </c>
@@ -10933,28 +10244,23 @@
       <c r="F93" s="9">
         <v>20</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="15">
         <f>VLOOKUP(A93,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.33</v>
       </c>
       <c r="L93" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6</v>
+      </c>
+      <c r="M93" s="32"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="2">
+        <f t="shared" si="5"/>
+        <v>7.6923076923076916</v>
+      </c>
+      <c r="Q93" s="2">
         <f t="shared" si="6"/>
-        <v>2.6</v>
-      </c>
-      <c r="M93" s="20">
-        <v>10</v>
-      </c>
-      <c r="N93" s="21"/>
-      <c r="O93" s="61">
-        <f t="shared" si="10"/>
-        <v>9.9999999999999982</v>
-      </c>
-      <c r="P93" s="2">
-        <f t="shared" si="7"/>
-        <v>11.538461538461538</v>
-      </c>
-      <c r="Q93" s="2">
-        <f t="shared" si="8"/>
         <v>7.6923076923076916</v>
       </c>
       <c r="R93" s="2">
@@ -10966,14 +10272,11 @@
         <v>0.2</v>
       </c>
       <c r="V93" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="Y93" s="17">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>100</v>
       </c>
@@ -10992,28 +10295,23 @@
       <c r="F94" s="9">
         <v>14</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="15">
         <f>VLOOKUP(A94,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L94" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M94" s="32"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3636363636363633</v>
+      </c>
+      <c r="Q94" s="2">
         <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M94" s="20">
-        <v>15</v>
-      </c>
-      <c r="N94" s="21"/>
-      <c r="O94" s="61">
-        <f t="shared" si="10"/>
-        <v>68.571428571428569</v>
-      </c>
-      <c r="P94" s="2">
-        <f t="shared" si="7"/>
-        <v>13.18181818181818</v>
-      </c>
-      <c r="Q94" s="2">
-        <f t="shared" si="8"/>
         <v>6.3636363636363633</v>
       </c>
       <c r="R94" s="2">
@@ -11025,14 +10323,11 @@
         <v>0</v>
       </c>
       <c r="V94" s="2">
-        <f t="shared" si="9"/>
-        <v>5.25</v>
-      </c>
-      <c r="Y94" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>101</v>
       </c>
@@ -11047,26 +10342,23 @@
       <c r="F95" s="9">
         <v>187</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="15">
         <f>VLOOKUP(A95,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.6</v>
       </c>
       <c r="L95" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="32"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q95" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="20"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="61">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P95" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q95" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R95" s="2">
@@ -11077,76 +10369,67 @@
         <f>VLOOKUP(A95,[1]TDSheet!$A:$L,12,0)</f>
         <v>1</v>
       </c>
-      <c r="U95" s="25" t="str">
+      <c r="U95" s="20" t="str">
         <f>VLOOKUP(A95,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V95" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="22" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="18">
         <v>2</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="18">
         <v>36</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E96" s="18">
         <v>2</v>
       </c>
-      <c r="F96" s="23">
+      <c r="F96" s="18">
         <v>36</v>
       </c>
-      <c r="G96" s="17">
+      <c r="G96" s="15">
         <v>0</v>
       </c>
       <c r="L96" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="M96" s="32"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="Q96" s="2">
         <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="M96" s="20"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="31">
-        <f>Y96/0.35</f>
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="P96" s="2">
+        <v>90</v>
+      </c>
+      <c r="R96" s="2">
+        <v>0</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="U96" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="V96" s="2">
         <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="Q96" s="2">
-        <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="R96" s="2">
-        <v>0</v>
-      </c>
-      <c r="S96" s="2">
-        <v>0</v>
-      </c>
-      <c r="U96" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="V96" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="17">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>103</v>
       </c>
@@ -11163,26 +10446,23 @@
       <c r="F97" s="9">
         <v>47</v>
       </c>
-      <c r="G97" s="17">
+      <c r="G97" s="15">
         <f>VLOOKUP(A97,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L97" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M97" s="32"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="2">
+        <f t="shared" si="5"/>
+        <v>21.363636363636363</v>
+      </c>
+      <c r="Q97" s="2">
         <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M97" s="20"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="61">
-        <f t="shared" si="10"/>
-        <v>6.9999999999999991</v>
-      </c>
-      <c r="P97" s="2">
-        <f t="shared" si="7"/>
-        <v>21.363636363636363</v>
-      </c>
-      <c r="Q97" s="2">
-        <f t="shared" si="8"/>
         <v>21.363636363636363</v>
       </c>
       <c r="R97" s="2">
@@ -11193,19 +10473,16 @@
         <f>VLOOKUP(A97,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.8</v>
       </c>
-      <c r="U97" s="25" t="str">
+      <c r="U97" s="20" t="str">
         <f>VLOOKUP(A97,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V97" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y97" s="17">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>104</v>
       </c>
@@ -11222,26 +10499,23 @@
       <c r="F98" s="9">
         <v>78</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="15">
         <f>VLOOKUP(A98,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L98" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="M98" s="32"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="2">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="Q98" s="2">
         <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-      <c r="M98" s="20"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="61">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="P98" s="2">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="Q98" s="2">
-        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="R98" s="2">
@@ -11252,19 +10526,16 @@
         <f>VLOOKUP(A98,[1]TDSheet!$A:$L,12,0)</f>
         <v>2.4</v>
       </c>
-      <c r="U98" s="25" t="str">
+      <c r="U98" s="20" t="str">
         <f>VLOOKUP(A98,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V98" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y98" s="17">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>105</v>
       </c>
@@ -11283,28 +10554,23 @@
       <c r="F99" s="9">
         <v>14</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="15">
         <f>VLOOKUP(A99,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L99" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="M99" s="32"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="2">
+        <f t="shared" si="5"/>
+        <v>8.75</v>
+      </c>
+      <c r="Q99" s="2">
         <f t="shared" si="6"/>
-        <v>1.6</v>
-      </c>
-      <c r="M99" s="20">
-        <v>5</v>
-      </c>
-      <c r="N99" s="21"/>
-      <c r="O99" s="61">
-        <f t="shared" si="10"/>
-        <v>6.9999999999999991</v>
-      </c>
-      <c r="P99" s="2">
-        <f t="shared" si="7"/>
-        <v>11.875</v>
-      </c>
-      <c r="Q99" s="2">
-        <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
       <c r="R99" s="2">
@@ -11316,14 +10582,11 @@
         <v>1.6</v>
       </c>
       <c r="V99" s="2">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="Y99" s="17">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>106</v>
       </c>
@@ -11338,23 +10601,23 @@
       <c r="F100" s="9">
         <v>24.134</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="15">
         <f>VLOOKUP(A100,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L100" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="32"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q100" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="20"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="61"/>
-      <c r="P100" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q100" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R100" s="2">
@@ -11366,11 +10629,11 @@
         <v>0</v>
       </c>
       <c r="V100" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>107</v>
       </c>
@@ -11389,28 +10652,23 @@
       <c r="F101" s="9">
         <v>209.91</v>
       </c>
-      <c r="G101" s="17">
+      <c r="G101" s="15">
         <f>VLOOKUP(A101,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L101" s="2">
+        <f t="shared" si="4"/>
+        <v>37.933</v>
+      </c>
+      <c r="M101" s="32"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="2">
+        <f t="shared" si="5"/>
+        <v>5.5337041626024837</v>
+      </c>
+      <c r="Q101" s="2">
         <f t="shared" si="6"/>
-        <v>37.933</v>
-      </c>
-      <c r="M101" s="20">
-        <v>250</v>
-      </c>
-      <c r="N101" s="21"/>
-      <c r="O101" s="61">
-        <f t="shared" si="10"/>
-        <v>108</v>
-      </c>
-      <c r="P101" s="2">
-        <f t="shared" si="7"/>
-        <v>12.124271742282444</v>
-      </c>
-      <c r="Q101" s="2">
-        <f t="shared" si="8"/>
         <v>5.5337041626024837</v>
       </c>
       <c r="R101" s="2">
@@ -11422,14 +10680,11 @@
         <v>34.206000000000003</v>
       </c>
       <c r="V101" s="2">
-        <f t="shared" si="9"/>
-        <v>250</v>
-      </c>
-      <c r="Y101" s="17">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>108</v>
       </c>
@@ -11444,26 +10699,23 @@
       <c r="F102" s="9">
         <v>32.57</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="15">
         <f>VLOOKUP(A102,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L102" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="32"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q102" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="20"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="61">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="P102" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q102" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R102" s="2">
@@ -11474,19 +10726,16 @@
         <f>VLOOKUP(A102,[1]TDSheet!$A:$L,12,0)</f>
         <v>1.3320000000000001</v>
       </c>
-      <c r="U102" s="25" t="str">
+      <c r="U102" s="20" t="str">
         <f>VLOOKUP(A102,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V102" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y102" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>109</v>
       </c>
@@ -11501,23 +10750,23 @@
       <c r="F103" s="9">
         <v>84.26</v>
       </c>
-      <c r="G103" s="17">
+      <c r="G103" s="15">
         <f>VLOOKUP(A103,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L103" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="32"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q103" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="20"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="61"/>
-      <c r="P103" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q103" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R103" s="2">
@@ -11528,16 +10777,16 @@
         <f>VLOOKUP(A103,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U103" s="25" t="str">
+      <c r="U103" s="20" t="str">
         <f>VLOOKUP(A103,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V103" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>110</v>
       </c>
@@ -11556,26 +10805,23 @@
       <c r="F104" s="9">
         <v>296.2</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="15">
         <f>VLOOKUP(A104,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L104" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2114000000000003</v>
+      </c>
+      <c r="M104" s="32"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="2">
+        <f t="shared" si="5"/>
+        <v>133.94229899611105</v>
+      </c>
+      <c r="Q104" s="2">
         <f t="shared" si="6"/>
-        <v>2.2114000000000003</v>
-      </c>
-      <c r="M104" s="20"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="61">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="P104" s="2">
-        <f t="shared" si="7"/>
-        <v>133.94229899611105</v>
-      </c>
-      <c r="Q104" s="2">
-        <f t="shared" si="8"/>
         <v>133.94229899611105</v>
       </c>
       <c r="R104" s="2">
@@ -11587,69 +10833,60 @@
         <v>25.5838</v>
       </c>
       <c r="V104" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y104" s="17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="58"/>
-      <c r="D105" s="23">
+      <c r="C105" s="26"/>
+      <c r="D105" s="18">
         <v>32.539000000000001</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="18">
         <v>4.0439999999999996</v>
       </c>
-      <c r="F105" s="23">
+      <c r="F105" s="18">
         <v>28.495000000000001</v>
       </c>
-      <c r="G105" s="17">
+      <c r="G105" s="15">
         <v>0</v>
       </c>
       <c r="L105" s="2">
+        <f t="shared" si="4"/>
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="M105" s="32"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="2">
+        <f t="shared" si="5"/>
+        <v>35.231206726013852</v>
+      </c>
+      <c r="Q105" s="2">
         <f t="shared" si="6"/>
-        <v>0.80879999999999996</v>
-      </c>
-      <c r="M105" s="20"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="31">
-        <f>Y105</f>
-        <v>12</v>
-      </c>
-      <c r="P105" s="2">
+        <v>35.231206726013852</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="U105" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="V105" s="2">
         <f t="shared" si="7"/>
-        <v>35.231206726013852</v>
-      </c>
-      <c r="Q105" s="2">
-        <f t="shared" si="8"/>
-        <v>35.231206726013852</v>
-      </c>
-      <c r="R105" s="2">
-        <v>0</v>
-      </c>
-      <c r="S105" s="2">
-        <v>0</v>
-      </c>
-      <c r="U105" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="V105" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y105" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>112</v>
       </c>
@@ -11668,28 +10905,23 @@
       <c r="F106" s="9">
         <v>30</v>
       </c>
-      <c r="G106" s="17">
+      <c r="G106" s="15">
         <f>VLOOKUP(A106,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.45</v>
       </c>
       <c r="L106" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="M106" s="32"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q106" s="2">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="M106" s="20">
-        <v>150</v>
-      </c>
-      <c r="N106" s="21"/>
-      <c r="O106" s="61">
-        <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="P106" s="2">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q106" s="2">
-        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R106" s="2">
@@ -11701,14 +10933,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="V106" s="2">
-        <f t="shared" si="9"/>
-        <v>67.5</v>
-      </c>
-      <c r="Y106" s="17">
-        <v>33.75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>113</v>
       </c>
@@ -11723,23 +10952,23 @@
       <c r="F107" s="9">
         <v>506.87700000000001</v>
       </c>
-      <c r="G107" s="17">
+      <c r="G107" s="15">
         <f>VLOOKUP(A107,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L107" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="32"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q107" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M107" s="20"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="61"/>
-      <c r="P107" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q107" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R107" s="2">
@@ -11751,11 +10980,11 @@
         <v>0</v>
       </c>
       <c r="V107" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>114</v>
       </c>
@@ -11772,26 +11001,23 @@
       <c r="F108" s="9">
         <v>258.16000000000003</v>
       </c>
-      <c r="G108" s="17">
+      <c r="G108" s="15">
         <f>VLOOKUP(A108,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L108" s="2">
+        <f t="shared" si="4"/>
+        <v>5.9728000000000003</v>
+      </c>
+      <c r="M108" s="32"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="2">
+        <f t="shared" si="5"/>
+        <v>43.222609161532283</v>
+      </c>
+      <c r="Q108" s="2">
         <f t="shared" si="6"/>
-        <v>5.9728000000000003</v>
-      </c>
-      <c r="M108" s="20"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="61">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="P108" s="2">
-        <f t="shared" si="7"/>
-        <v>43.222609161532283</v>
-      </c>
-      <c r="Q108" s="2">
-        <f t="shared" si="8"/>
         <v>43.222609161532283</v>
       </c>
       <c r="R108" s="2">
@@ -11802,19 +11028,16 @@
         <f>VLOOKUP(A108,[1]TDSheet!$A:$L,12,0)</f>
         <v>12.1768</v>
       </c>
-      <c r="U108" s="25" t="str">
+      <c r="U108" s="20" t="str">
         <f>VLOOKUP(A108,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V108" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y108" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>115</v>
       </c>
@@ -11831,26 +11054,23 @@
       <c r="F109" s="9">
         <v>248</v>
       </c>
-      <c r="G109" s="17">
+      <c r="G109" s="15">
         <f>VLOOKUP(A109,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.45</v>
       </c>
       <c r="L109" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="M109" s="32"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="2">
+        <f t="shared" si="5"/>
+        <v>59.047619047619044</v>
+      </c>
+      <c r="Q109" s="2">
         <f t="shared" si="6"/>
-        <v>4.2</v>
-      </c>
-      <c r="M109" s="20"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="61">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P109" s="2">
-        <f t="shared" si="7"/>
-        <v>59.047619047619044</v>
-      </c>
-      <c r="Q109" s="2">
-        <f t="shared" si="8"/>
         <v>59.047619047619044</v>
       </c>
       <c r="R109" s="2">
@@ -11861,19 +11081,16 @@
         <f>VLOOKUP(A109,[1]TDSheet!$A:$L,12,0)</f>
         <v>1.6</v>
       </c>
-      <c r="U109" s="25" t="str">
+      <c r="U109" s="20" t="str">
         <f>VLOOKUP(A109,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V109" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y109" s="17">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>116</v>
       </c>
@@ -11892,28 +11109,23 @@
       <c r="F110" s="9">
         <v>86</v>
       </c>
-      <c r="G110" s="17">
+      <c r="G110" s="15">
         <f>VLOOKUP(A110,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.45</v>
       </c>
       <c r="L110" s="2">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M110" s="32"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="2">
+        <f t="shared" si="5"/>
+        <v>9.3478260869565233</v>
+      </c>
+      <c r="Q110" s="2">
         <f t="shared" si="6"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M110" s="20">
-        <v>25</v>
-      </c>
-      <c r="N110" s="21"/>
-      <c r="O110" s="61">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="P110" s="2">
-        <f t="shared" si="7"/>
-        <v>12.065217391304349</v>
-      </c>
-      <c r="Q110" s="2">
-        <f t="shared" si="8"/>
         <v>9.3478260869565233</v>
       </c>
       <c r="R110" s="2">
@@ -11925,14 +11137,11 @@
         <v>0.2</v>
       </c>
       <c r="V110" s="2">
-        <f t="shared" si="9"/>
-        <v>11.25</v>
-      </c>
-      <c r="Y110" s="17">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>117</v>
       </c>
@@ -11947,26 +11156,23 @@
       <c r="F111" s="9">
         <v>21.382999999999999</v>
       </c>
-      <c r="G111" s="17">
+      <c r="G111" s="15">
         <f>VLOOKUP(A111,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L111" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="32"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q111" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="20"/>
-      <c r="N111" s="21"/>
-      <c r="O111" s="61">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="P111" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q111" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R111" s="2">
@@ -11978,14 +11184,11 @@
         <v>0</v>
       </c>
       <c r="V111" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y111" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>118</v>
       </c>
@@ -11999,30 +11202,27 @@
       <c r="E112" s="9">
         <v>287.49700000000001</v>
       </c>
-      <c r="F112" s="28">
+      <c r="F112" s="22">
         <f>694.633+F123</f>
         <v>693.29300000000001</v>
       </c>
-      <c r="G112" s="17">
+      <c r="G112" s="15">
         <f>VLOOKUP(A112,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L112" s="2">
+        <f t="shared" si="4"/>
+        <v>57.499400000000001</v>
+      </c>
+      <c r="M112" s="32"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="2">
+        <f t="shared" si="5"/>
+        <v>12.057395381517024</v>
+      </c>
+      <c r="Q112" s="2">
         <f t="shared" si="6"/>
-        <v>57.499400000000001</v>
-      </c>
-      <c r="M112" s="20"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="61">
-        <f t="shared" si="10"/>
-        <v>201</v>
-      </c>
-      <c r="P112" s="2">
-        <f t="shared" si="7"/>
-        <v>12.057395381517024</v>
-      </c>
-      <c r="Q112" s="2">
-        <f t="shared" si="8"/>
         <v>12.057395381517024</v>
       </c>
       <c r="R112" s="2">
@@ -12034,14 +11234,11 @@
         <v>40.448</v>
       </c>
       <c r="V112" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y112" s="17">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>119</v>
       </c>
@@ -12056,26 +11253,23 @@
       <c r="F113" s="9">
         <v>131.374</v>
       </c>
-      <c r="G113" s="17">
+      <c r="G113" s="15">
         <f>VLOOKUP(A113,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L113" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="32"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q113" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="20"/>
-      <c r="N113" s="21"/>
-      <c r="O113" s="61">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="P113" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q113" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R113" s="2">
@@ -12086,19 +11280,16 @@
         <f>VLOOKUP(A113,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.20800000000000002</v>
       </c>
-      <c r="U113" s="25" t="str">
+      <c r="U113" s="20" t="str">
         <f>VLOOKUP(A113,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V113" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y113" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>120</v>
       </c>
@@ -12113,26 +11304,23 @@
       <c r="F114" s="9">
         <v>35.232999999999997</v>
       </c>
-      <c r="G114" s="17">
+      <c r="G114" s="15">
         <f>VLOOKUP(A114,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L114" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="32"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q114" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="20"/>
-      <c r="N114" s="21"/>
-      <c r="O114" s="61">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="P114" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q114" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R114" s="2">
@@ -12143,19 +11331,16 @@
         <f>VLOOKUP(A114,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U114" s="25" t="str">
+      <c r="U114" s="20" t="str">
         <f>VLOOKUP(A114,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V114" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y114" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>121</v>
       </c>
@@ -12170,26 +11355,23 @@
       <c r="F115" s="9">
         <v>20</v>
       </c>
-      <c r="G115" s="17">
+      <c r="G115" s="15">
         <f>VLOOKUP(A115,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.4</v>
       </c>
       <c r="L115" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="32"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q115" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="20"/>
-      <c r="N115" s="21"/>
-      <c r="O115" s="61">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P115" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q115" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R115" s="2">
@@ -12200,18 +11382,15 @@
         <f>VLOOKUP(A115,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U115" s="29" t="s">
+      <c r="U115" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V115" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y115" s="17">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>122</v>
       </c>
@@ -12230,26 +11409,23 @@
       <c r="F116" s="9">
         <v>16</v>
       </c>
-      <c r="G116" s="17">
+      <c r="G116" s="15">
         <f>VLOOKUP(A116,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.5</v>
       </c>
       <c r="L116" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="M116" s="32"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="2">
+        <f t="shared" si="5"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q116" s="2">
         <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-      <c r="M116" s="20"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="61">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="P116" s="2">
-        <f t="shared" si="7"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="Q116" s="2">
-        <f t="shared" si="8"/>
         <v>13.333333333333334</v>
       </c>
       <c r="R116" s="2">
@@ -12260,19 +11436,16 @@
         <f>VLOOKUP(A116,[1]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
-      <c r="U116" s="25" t="str">
+      <c r="U116" s="20" t="str">
         <f>VLOOKUP(A116,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V116" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y116" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>123</v>
       </c>
@@ -12289,28 +11462,23 @@
       <c r="F117" s="9">
         <v>13</v>
       </c>
-      <c r="G117" s="17">
+      <c r="G117" s="15">
         <f>VLOOKUP(A117,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.35</v>
       </c>
       <c r="L117" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="M117" s="32"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="2">
+        <f t="shared" si="5"/>
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="Q117" s="2">
         <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="M117" s="20">
-        <v>10</v>
-      </c>
-      <c r="N117" s="21"/>
-      <c r="O117" s="61">
-        <f t="shared" si="10"/>
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="P117" s="2">
-        <f t="shared" si="7"/>
-        <v>12.777777777777777</v>
-      </c>
-      <c r="Q117" s="2">
-        <f t="shared" si="8"/>
         <v>7.2222222222222223</v>
       </c>
       <c r="R117" s="2">
@@ -12322,14 +11490,11 @@
         <v>0.4</v>
       </c>
       <c r="V117" s="2">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-      <c r="Y117" s="17">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>124</v>
       </c>
@@ -12344,23 +11509,23 @@
       <c r="F118" s="9">
         <v>37.247</v>
       </c>
-      <c r="G118" s="17">
+      <c r="G118" s="15">
         <f>VLOOKUP(A118,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L118" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="32"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q118" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="20"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="61"/>
-      <c r="P118" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q118" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R118" s="2">
@@ -12371,16 +11536,16 @@
         <f>VLOOKUP(A118,[1]TDSheet!$A:$L,12,0)</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="U118" s="25" t="str">
+      <c r="U118" s="20" t="str">
         <f>VLOOKUP(A118,[1]TDSheet!$A:$T,20,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="V118" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>125</v>
       </c>
@@ -12399,26 +11564,23 @@
       <c r="F119" s="9">
         <v>79.290000000000006</v>
       </c>
-      <c r="G119" s="17">
+      <c r="G119" s="15">
         <f>VLOOKUP(A119,[1]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="L119" s="2">
+        <f t="shared" si="4"/>
+        <v>1.34</v>
+      </c>
+      <c r="M119" s="32"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="2">
+        <f t="shared" si="5"/>
+        <v>59.171641791044777</v>
+      </c>
+      <c r="Q119" s="2">
         <f t="shared" si="6"/>
-        <v>1.34</v>
-      </c>
-      <c r="M119" s="20"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="61">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="P119" s="2">
-        <f t="shared" si="7"/>
-        <v>59.171641791044777</v>
-      </c>
-      <c r="Q119" s="2">
-        <f t="shared" si="8"/>
         <v>59.171641791044777</v>
       </c>
       <c r="R119" s="2">
@@ -12429,18 +11591,15 @@
         <f>VLOOKUP(A119,[1]TDSheet!$A:$L,12,0)</f>
         <v>6.9599999999999991</v>
       </c>
-      <c r="U119" s="29" t="s">
+      <c r="U119" s="23" t="s">
         <v>143</v>
       </c>
       <c r="V119" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y119" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>126</v>
       </c>
@@ -12455,26 +11614,23 @@
       <c r="F120" s="9">
         <v>12</v>
       </c>
-      <c r="G120" s="17">
+      <c r="G120" s="15">
         <f>VLOOKUP(A120,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="L120" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="32"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q120" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="20"/>
-      <c r="N120" s="21"/>
-      <c r="O120" s="61">
-        <f t="shared" si="10"/>
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="P120" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q120" s="2" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R120" s="2">
@@ -12486,61 +11642,58 @@
         <v>0</v>
       </c>
       <c r="V120" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y120" s="17">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="22" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="58"/>
-      <c r="D121" s="23">
+      <c r="C121" s="26"/>
+      <c r="D121" s="18">
         <v>18</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23">
+      <c r="E121" s="18"/>
+      <c r="F121" s="18">
         <v>18</v>
       </c>
-      <c r="G121" s="17">
+      <c r="G121" s="15">
         <v>0</v>
       </c>
       <c r="L121" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="32"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q121" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M121" s="20"/>
-      <c r="N121" s="21"/>
-      <c r="O121" s="63"/>
-      <c r="P121" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R121" s="2">
+        <v>0</v>
+      </c>
+      <c r="S121" s="2">
+        <v>0</v>
+      </c>
+      <c r="U121" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="V121" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q121" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R121" s="2">
-        <v>0</v>
-      </c>
-      <c r="S121" s="2">
-        <v>0</v>
-      </c>
-      <c r="U121" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="V121" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>128</v>
       </c>
@@ -12557,26 +11710,23 @@
       <c r="F122" s="9">
         <v>16</v>
       </c>
-      <c r="G122" s="17">
+      <c r="G122" s="15">
         <f>VLOOKUP(A122,[1]TDSheet!$A:$G,7,0)</f>
         <v>0.375</v>
       </c>
       <c r="L122" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="M122" s="32"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q122" s="2">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="M122" s="20"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="61">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P122" s="2">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="Q122" s="2">
-        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="R122" s="2">
@@ -12588,15 +11738,12 @@
         <v>0.2</v>
       </c>
       <c r="V122" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y122" s="17">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="27" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="21" t="s">
         <v>129</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -12607,40 +11754,40 @@
       <c r="E123" s="9">
         <v>1.34</v>
       </c>
-      <c r="F123" s="28">
+      <c r="F123" s="22">
         <v>-1.34</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G123" s="15">
         <v>0</v>
       </c>
       <c r="L123" s="2">
+        <f t="shared" si="4"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="M123" s="32"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="2">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="Q123" s="2">
         <f t="shared" si="6"/>
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="M123" s="20"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="61"/>
-      <c r="P123" s="2">
+        <v>-5</v>
+      </c>
+      <c r="R123" s="2">
+        <v>0</v>
+      </c>
+      <c r="S123" s="2">
+        <v>0</v>
+      </c>
+      <c r="V123" s="2">
         <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-      <c r="Q123" s="2">
-        <f t="shared" si="8"/>
-        <v>-5</v>
-      </c>
-      <c r="R123" s="2">
-        <v>0</v>
-      </c>
-      <c r="S123" s="2">
-        <v>0</v>
-      </c>
-      <c r="V123" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -12651,40 +11798,40 @@
       <c r="E124" s="9">
         <v>7</v>
       </c>
-      <c r="F124" s="28">
+      <c r="F124" s="22">
         <v>-7</v>
       </c>
-      <c r="G124" s="17">
+      <c r="G124" s="15">
         <v>0</v>
       </c>
       <c r="L124" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="M124" s="32"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="27"/>
+      <c r="P124" s="2">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="Q124" s="2">
         <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="M124" s="20"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="2">
+        <v>-5</v>
+      </c>
+      <c r="R124" s="2">
+        <v>0</v>
+      </c>
+      <c r="S124" s="2">
+        <v>0</v>
+      </c>
+      <c r="V124" s="2">
         <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-      <c r="Q124" s="2">
-        <f t="shared" si="8"/>
-        <v>-5</v>
-      </c>
-      <c r="R124" s="2">
-        <v>0</v>
-      </c>
-      <c r="S124" s="2">
-        <v>0</v>
-      </c>
-      <c r="V124" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B125" s="8" t="s">
@@ -12695,717 +11842,36 @@
       <c r="E125" s="9">
         <v>2</v>
       </c>
-      <c r="F125" s="28">
+      <c r="F125" s="22">
         <v>-2</v>
       </c>
-      <c r="G125" s="17">
+      <c r="G125" s="15">
         <v>0</v>
       </c>
       <c r="L125" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="M125" s="32"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="2">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="Q125" s="2">
         <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="M125" s="20"/>
-      <c r="N125" s="21"/>
-      <c r="O125" s="61"/>
-      <c r="P125" s="2">
+        <v>-5</v>
+      </c>
+      <c r="R125" s="2">
+        <v>0</v>
+      </c>
+      <c r="S125" s="2">
+        <v>0</v>
+      </c>
+      <c r="V125" s="2">
         <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-      <c r="Q125" s="2">
-        <f t="shared" si="8"/>
-        <v>-5</v>
-      </c>
-      <c r="R125" s="2">
-        <v>0</v>
-      </c>
-      <c r="S125" s="2">
-        <v>0</v>
-      </c>
-      <c r="V125" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A127" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="36">
-        <v>1</v>
-      </c>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="38"/>
-      <c r="N127" s="37"/>
-      <c r="O127" s="39">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P127" s="37"/>
-      <c r="Q127" s="37"/>
-      <c r="R127" s="37"/>
-      <c r="S127" s="37"/>
-      <c r="T127" s="37"/>
-      <c r="U127" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="V127" s="37"/>
-      <c r="W127" s="37"/>
-      <c r="X127" s="37"/>
-      <c r="Y127" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A128" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="44">
-        <v>1</v>
-      </c>
-      <c r="H128" s="45"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45"/>
-      <c r="K128" s="45"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="46"/>
-      <c r="N128" s="45"/>
-      <c r="O128" s="30">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P128" s="45"/>
-      <c r="Q128" s="45"/>
-      <c r="R128" s="45"/>
-      <c r="S128" s="45"/>
-      <c r="T128" s="45"/>
-      <c r="U128" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V128" s="45"/>
-      <c r="W128" s="45"/>
-      <c r="X128" s="45"/>
-      <c r="Y128" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A129" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B129" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="H129" s="45"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="45"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="45"/>
-      <c r="O129" s="30">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="P129" s="45"/>
-      <c r="Q129" s="45"/>
-      <c r="R129" s="45"/>
-      <c r="S129" s="45"/>
-      <c r="T129" s="45"/>
-      <c r="U129" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V129" s="45"/>
-      <c r="W129" s="45"/>
-      <c r="X129" s="45"/>
-      <c r="Y129" s="47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A130" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B130" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="H130" s="45"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="45"/>
-      <c r="M130" s="46"/>
-      <c r="N130" s="45"/>
-      <c r="O130" s="30">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="P130" s="45"/>
-      <c r="Q130" s="45"/>
-      <c r="R130" s="45"/>
-      <c r="S130" s="45"/>
-      <c r="T130" s="45"/>
-      <c r="U130" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V130" s="45"/>
-      <c r="W130" s="45"/>
-      <c r="X130" s="45"/>
-      <c r="Y130" s="47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A131" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="H131" s="45"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="45"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="45"/>
-      <c r="M131" s="46"/>
-      <c r="N131" s="45"/>
-      <c r="O131" s="30">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="P131" s="45"/>
-      <c r="Q131" s="45"/>
-      <c r="R131" s="45"/>
-      <c r="S131" s="45"/>
-      <c r="T131" s="45"/>
-      <c r="U131" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V131" s="45"/>
-      <c r="W131" s="45"/>
-      <c r="X131" s="45"/>
-      <c r="Y131" s="47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A132" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B132" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="H132" s="45"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="45"/>
-      <c r="K132" s="45"/>
-      <c r="L132" s="45"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="45"/>
-      <c r="O132" s="30">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="P132" s="45"/>
-      <c r="Q132" s="45"/>
-      <c r="R132" s="45"/>
-      <c r="S132" s="45"/>
-      <c r="T132" s="45"/>
-      <c r="U132" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V132" s="45"/>
-      <c r="W132" s="45"/>
-      <c r="X132" s="45"/>
-      <c r="Y132" s="47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A133" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B133" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="45"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="45"/>
-      <c r="O133" s="30">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="P133" s="45"/>
-      <c r="Q133" s="45"/>
-      <c r="R133" s="45"/>
-      <c r="S133" s="45"/>
-      <c r="T133" s="45"/>
-      <c r="U133" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V133" s="45"/>
-      <c r="W133" s="45"/>
-      <c r="X133" s="45"/>
-      <c r="Y133" s="47">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A134" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B134" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="H134" s="45"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="45"/>
-      <c r="K134" s="45"/>
-      <c r="L134" s="45"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="45"/>
-      <c r="O134" s="30">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="P134" s="45"/>
-      <c r="Q134" s="45"/>
-      <c r="R134" s="45"/>
-      <c r="S134" s="45"/>
-      <c r="T134" s="45"/>
-      <c r="U134" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V134" s="45"/>
-      <c r="W134" s="45"/>
-      <c r="X134" s="45"/>
-      <c r="Y134" s="47">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A135" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B135" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="44">
-        <v>0.38</v>
-      </c>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="45"/>
-      <c r="K135" s="45"/>
-      <c r="L135" s="45"/>
-      <c r="M135" s="46"/>
-      <c r="N135" s="45"/>
-      <c r="O135" s="30">
-        <f t="shared" ref="O135:O143" si="11">Y135/G135</f>
-        <v>30</v>
-      </c>
-      <c r="P135" s="45"/>
-      <c r="Q135" s="45"/>
-      <c r="R135" s="45"/>
-      <c r="S135" s="45"/>
-      <c r="T135" s="45"/>
-      <c r="U135" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V135" s="45"/>
-      <c r="W135" s="45"/>
-      <c r="X135" s="45"/>
-      <c r="Y135" s="47">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A136" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="44">
-        <v>1</v>
-      </c>
-      <c r="H136" s="45"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="45"/>
-      <c r="K136" s="45"/>
-      <c r="L136" s="45"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="45"/>
-      <c r="O136" s="30">
-        <f t="shared" si="11"/>
-        <v>42</v>
-      </c>
-      <c r="P136" s="45"/>
-      <c r="Q136" s="45"/>
-      <c r="R136" s="45"/>
-      <c r="S136" s="45"/>
-      <c r="T136" s="45"/>
-      <c r="U136" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V136" s="45"/>
-      <c r="W136" s="45"/>
-      <c r="X136" s="45"/>
-      <c r="Y136" s="47">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A137" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B137" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="44">
-        <v>1</v>
-      </c>
-      <c r="H137" s="45"/>
-      <c r="I137" s="45"/>
-      <c r="J137" s="45"/>
-      <c r="K137" s="45"/>
-      <c r="L137" s="45"/>
-      <c r="M137" s="46"/>
-      <c r="N137" s="45"/>
-      <c r="O137" s="30">
-        <f t="shared" si="11"/>
-        <v>62</v>
-      </c>
-      <c r="P137" s="45"/>
-      <c r="Q137" s="45"/>
-      <c r="R137" s="45"/>
-      <c r="S137" s="45"/>
-      <c r="T137" s="45"/>
-      <c r="U137" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V137" s="45"/>
-      <c r="W137" s="45"/>
-      <c r="X137" s="45"/>
-      <c r="Y137" s="47">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A138" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B138" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43"/>
-      <c r="G138" s="44">
-        <v>0.4</v>
-      </c>
-      <c r="H138" s="45"/>
-      <c r="I138" s="45"/>
-      <c r="J138" s="45"/>
-      <c r="K138" s="45"/>
-      <c r="L138" s="45"/>
-      <c r="M138" s="46"/>
-      <c r="N138" s="45"/>
-      <c r="O138" s="30">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="P138" s="45"/>
-      <c r="Q138" s="45"/>
-      <c r="R138" s="45"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="45"/>
-      <c r="U138" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V138" s="45"/>
-      <c r="W138" s="45"/>
-      <c r="X138" s="45"/>
-      <c r="Y138" s="47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A139" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B139" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="43"/>
-      <c r="D139" s="43"/>
-      <c r="E139" s="43"/>
-      <c r="F139" s="43"/>
-      <c r="G139" s="44">
-        <v>0.42</v>
-      </c>
-      <c r="H139" s="45"/>
-      <c r="I139" s="45"/>
-      <c r="J139" s="45"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="45"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="45"/>
-      <c r="O139" s="30">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="P139" s="45"/>
-      <c r="Q139" s="45"/>
-      <c r="R139" s="45"/>
-      <c r="S139" s="45"/>
-      <c r="T139" s="45"/>
-      <c r="U139" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V139" s="45"/>
-      <c r="W139" s="45"/>
-      <c r="X139" s="45"/>
-      <c r="Y139" s="47">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A140" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B140" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="43"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="43"/>
-      <c r="F140" s="43"/>
-      <c r="G140" s="44">
-        <v>0.35</v>
-      </c>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
-      <c r="J140" s="45"/>
-      <c r="K140" s="45"/>
-      <c r="L140" s="45"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="30">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="P140" s="45"/>
-      <c r="Q140" s="45"/>
-      <c r="R140" s="45"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
-      <c r="U140" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V140" s="45"/>
-      <c r="W140" s="45"/>
-      <c r="X140" s="45"/>
-      <c r="Y140" s="47">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A141" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B141" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="43"/>
-      <c r="D141" s="43"/>
-      <c r="E141" s="43"/>
-      <c r="F141" s="43"/>
-      <c r="G141" s="44">
-        <v>1</v>
-      </c>
-      <c r="H141" s="45"/>
-      <c r="I141" s="45"/>
-      <c r="J141" s="45"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="46"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="30">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="P141" s="45"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="45"/>
-      <c r="S141" s="45"/>
-      <c r="T141" s="45"/>
-      <c r="U141" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V141" s="45"/>
-      <c r="W141" s="45"/>
-      <c r="X141" s="45"/>
-      <c r="Y141" s="47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A142" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B142" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="44">
-        <v>0.35</v>
-      </c>
-      <c r="H142" s="45"/>
-      <c r="I142" s="45"/>
-      <c r="J142" s="45"/>
-      <c r="K142" s="45"/>
-      <c r="L142" s="45"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="30">
-        <f t="shared" si="11"/>
-        <v>30.000000000000004</v>
-      </c>
-      <c r="P142" s="45"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="45"/>
-      <c r="S142" s="45"/>
-      <c r="T142" s="45"/>
-      <c r="U142" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="V142" s="45"/>
-      <c r="W142" s="45"/>
-      <c r="X142" s="45"/>
-      <c r="Y142" s="47">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B143" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="51">
-        <v>1</v>
-      </c>
-      <c r="H143" s="52"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="52"/>
-      <c r="K143" s="52"/>
-      <c r="L143" s="52"/>
-      <c r="M143" s="53"/>
-      <c r="N143" s="52"/>
-      <c r="O143" s="54">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="P143" s="52"/>
-      <c r="Q143" s="52"/>
-      <c r="R143" s="52"/>
-      <c r="S143" s="52"/>
-      <c r="T143" s="52"/>
-      <c r="U143" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="V143" s="52"/>
-      <c r="W143" s="52"/>
-      <c r="X143" s="52"/>
-      <c r="Y143" s="55">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
